--- a/hp/4model-GAN/RS(6,3)数据-PRM-GAN.xlsx
+++ b/hp/4model-GAN/RS(6,3)数据-PRM-GAN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D753A4-F556-401D-8E23-158556EF92CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD914A5-BD1F-45C3-AE1C-FD5FBA060F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>模型名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>PRM-Typical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,27 +582,27 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H3" ca="1" si="0">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>0.87999999999999989</v>
+        <v>-0.36</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30000000000000004</v>
+        <v>-0.72</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82000000000000006</v>
+        <v>-0.78</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33999999999999997</v>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -607,27 +611,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:H4" ca="1" si="1">C2-C3</f>
-        <v>63.48</v>
+        <v>64.72</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>69.320000000000007</v>
+        <v>69.52</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72.38</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>73.899999999999991</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74.97999999999999</v>
+        <v>74.94</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75.2</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -685,27 +689,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:H7" ca="1" si="2">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.82000000000000006</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.6</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32000000000000006</v>
+        <v>-0.98</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>-0.96</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17999999999999994</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.4</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -714,27 +718,27 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:H8" ca="1" si="3">C6-C7</f>
-        <v>71.58</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>82.48</v>
+        <v>82.8</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>82.84</v>
+        <v>84.14</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>82.52</v>
+        <v>84.039999999999992</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>84.22</v>
+        <v>84.54</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86.460000000000008</v>
+        <v>86.320000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -792,27 +796,27 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:H11" ca="1" si="4">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>0</v>
+        <v>-0.94</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.94</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34000000000000008</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34000000000000008</v>
+        <v>-0.78</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.24</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -821,27 +825,27 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:H12" ca="1" si="5">C10-C11</f>
-        <v>75.08</v>
+        <v>76.02</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>77.539999999999992</v>
+        <v>76.16</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79.14</v>
+        <v>79.02000000000001</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.3</v>
+        <v>82.42</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>82.82</v>
+        <v>82.62</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.899999999999991</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -899,27 +903,27 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:H15" ca="1" si="6">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>0.34000000000000008</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.84</v>
+        <v>0.37999999999999989</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58000000000000007</v>
+        <v>-0.42000000000000004</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15999999999999992</v>
+        <v>-0.18000000000000005</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18000000000000005</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -928,27 +932,27 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:H16" ca="1" si="7">C14-C15</f>
-        <v>70.16</v>
+        <v>70.3</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>76.34</v>
+        <v>75.12</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>76.12</v>
+        <v>77.12</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>80.38000000000001</v>
+        <v>80.720000000000013</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>82.080000000000013</v>
+        <v>81.600000000000009</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>80.600000000000009</v>
+        <v>79.86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -997,45 +1001,45 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>0.95</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="C30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>3.85</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="E30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31">
         <f ca="1">B29+B30</f>
-        <v>64.683333333333337</v>
+        <v>67.783333333333331</v>
       </c>
       <c r="C31">
         <f ca="1">C29+C30</f>
-        <v>67.603333333333325</v>
+        <v>68.403333333333336</v>
       </c>
       <c r="D31">
         <f ca="1">D29+D30</f>
-        <v>68.203333333333333</v>
+        <v>66.903333333333336</v>
       </c>
       <c r="E31">
         <f ca="1">E29+E30</f>
-        <v>65.713333333333324</v>
+        <v>66.313333333333318</v>
       </c>
       <c r="F31">
         <f ca="1">F29+F30</f>
-        <v>66.673333333333332</v>
+        <v>64.573333333333323</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,6 +1561,51 @@
       </c>
       <c r="G8">
         <v>75.47999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>69.42</v>
+      </c>
+      <c r="D10">
+        <v>71.66</v>
+      </c>
+      <c r="E10">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F10">
+        <v>74.16</v>
+      </c>
+      <c r="G10">
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>70.08</v>
+      </c>
+      <c r="D11">
+        <v>72.320000000000007</v>
+      </c>
+      <c r="E11">
+        <v>74.58</v>
+      </c>
+      <c r="F11">
+        <v>74.72</v>
+      </c>
+      <c r="G11">
+        <v>75.36</v>
       </c>
     </row>
   </sheetData>
@@ -1571,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,6 +1812,51 @@
         <v>85.44</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>82.2</v>
+      </c>
+      <c r="D10">
+        <v>82.66</v>
+      </c>
+      <c r="E10">
+        <v>82.92</v>
+      </c>
+      <c r="F10">
+        <v>84.36</v>
+      </c>
+      <c r="G10">
+        <v>85.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>82.320000000000007</v>
+      </c>
+      <c r="D11">
+        <v>82.679999999999993</v>
+      </c>
+      <c r="E11">
+        <v>82.58</v>
+      </c>
+      <c r="F11">
+        <v>83.84</v>
+      </c>
+      <c r="G11">
+        <v>84.56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1952,6 +2046,51 @@
       </c>
       <c r="G8">
         <v>81.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>77.360000000000014</v>
+      </c>
+      <c r="E10">
+        <v>81.5</v>
+      </c>
+      <c r="F10">
+        <v>81.84</v>
+      </c>
+      <c r="G10">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D11">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="E11">
+        <v>80.98</v>
+      </c>
+      <c r="F11">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="G11">
+        <v>81.34</v>
       </c>
     </row>
   </sheetData>
@@ -1966,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,6 +2289,51 @@
       </c>
       <c r="G8">
         <v>82.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>75.5</v>
+      </c>
+      <c r="D10">
+        <v>76.7</v>
+      </c>
+      <c r="E10">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="F10">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G10">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>74.64</v>
+      </c>
+      <c r="D11">
+        <v>77.34</v>
+      </c>
+      <c r="E11">
+        <v>80.48</v>
+      </c>
+      <c r="F11">
+        <v>81.56</v>
+      </c>
+      <c r="G11">
+        <v>79.7</v>
       </c>
     </row>
   </sheetData>
